--- a/VirVentureLiveEnvironment_AutomatioFramework/src/main/java/com/virventure/qa/testdata/VVData.xlsx
+++ b/VirVentureLiveEnvironment_AutomatioFramework/src/main/java/com/virventure/qa/testdata/VVData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Forgot" sheetId="2" r:id="rId2"/>
     <sheet name="RMASearch" sheetId="3" r:id="rId3"/>
+    <sheet name="FBMOrder" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>UserName</t>
   </si>
@@ -79,6 +80,42 @@
   </si>
   <si>
     <t>DM</t>
+  </si>
+  <si>
+    <t>Amazon.com</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>Open - MO Pending</t>
+  </si>
+  <si>
+    <t>Open - On Hold</t>
+  </si>
+  <si>
+    <t>Open - Shipment Pending</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>114-8176198-5446645</t>
+  </si>
+  <si>
+    <t>503-1874981-3171830</t>
+  </si>
+  <si>
+    <t>112-2281775-5300227</t>
+  </si>
+  <si>
+    <t>114-8149194-0358663</t>
   </si>
 </sst>
 </file>
@@ -101,7 +138,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +148,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,11 +180,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -585,4 +636,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>